--- a/Galeria.Diseño de Vistas.xlsx
+++ b/Galeria.Diseño de Vistas.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9315" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9315" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Vista 1 (INICIO)" sheetId="1" r:id="rId1"/>
     <sheet name="Vista 2 (NOSOTROS)" sheetId="4" r:id="rId2"/>
-    <sheet name="Vista 3 (SERVICIOS)" sheetId="5" r:id="rId3"/>
-    <sheet name="Vista 4 (PRODUCTOS)" sheetId="7" r:id="rId4"/>
-    <sheet name="Vista 5 (CONTACTO)" sheetId="6" r:id="rId5"/>
+    <sheet name="Vista 3 (PRODUCTOS &amp; SERVICIOS)" sheetId="5" r:id="rId3"/>
+    <sheet name="Vista 4 (PRODUCTOS)" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Vista 5 (CONTACTO)" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>Inicio</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Productos</t>
+  </si>
+  <si>
+    <t>Productos &amp; Servicios</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -232,9 +235,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,6 +264,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,6 +414,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="11 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714751" y="4286251"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="12 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762751" y="4267201"/>
+          <a:ext cx="209549" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="13 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257801" y="4705351"/>
+          <a:ext cx="209549" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="14 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705227" y="4724402"/>
+          <a:ext cx="209548" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="15 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="4286250"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="16 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724651" y="4667251"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -461,6 +727,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714751" y="4286251"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762751" y="4267201"/>
+          <a:ext cx="209549" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="7 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257801" y="4705351"/>
+          <a:ext cx="209549" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="8 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705227" y="4724402"/>
+          <a:ext cx="209548" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="9 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="4286250"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="10 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724651" y="4667251"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -502,6 +1032,270 @@
         <a:xfrm>
           <a:off x="371475" y="114003"/>
           <a:ext cx="600075" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714751" y="4286251"/>
+          <a:ext cx="209550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762751" y="4267201"/>
+          <a:ext cx="209549" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257801" y="4705351"/>
+          <a:ext cx="209549" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705227" y="4724402"/>
+          <a:ext cx="209548" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="7 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="4286250"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="8 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724651" y="4667251"/>
+          <a:ext cx="285750" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -566,16 +1360,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,8 +1392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="942975" y="1600200"/>
-          <a:ext cx="428625" cy="428625"/>
+          <a:off x="3714751" y="4286251"/>
+          <a:ext cx="209550" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -610,15 +1404,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -642,8 +1436,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733926" y="2171701"/>
-          <a:ext cx="428624" cy="428624"/>
+          <a:off x="6762751" y="4267201"/>
+          <a:ext cx="209549" cy="209549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,15 +1449,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -686,8 +1480,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743451" y="1571626"/>
-          <a:ext cx="419100" cy="419100"/>
+          <a:off x="5257801" y="4705351"/>
+          <a:ext cx="209549" cy="209549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,16 +1492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>828677</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,8 +1524,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952502" y="2190752"/>
-          <a:ext cx="419098" cy="419098"/>
+          <a:off x="3705227" y="4724402"/>
+          <a:ext cx="209548" cy="209548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,16 +1536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -774,8 +1568,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="2752725"/>
-          <a:ext cx="390525" cy="390525"/>
+          <a:off x="5257800" y="4286250"/>
+          <a:ext cx="200025" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -786,16 +1580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -818,8 +1612,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686300" y="2695575"/>
-          <a:ext cx="523875" cy="523875"/>
+          <a:off x="6724651" y="4667251"/>
+          <a:ext cx="285750" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1164,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,15 +1983,11 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1443,77 +2233,73 @@
     </row>
     <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1"/>
@@ -1529,7 +2315,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,14 +2368,14 @@
       <c r="M5" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1598,13 +2384,13 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="16" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="4"/>
@@ -1682,7 +2468,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J13" s="4"/>
@@ -1753,7 +2539,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="4"/>
@@ -1820,77 +2606,73 @@
     </row>
     <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
     <mergeCell ref="B7:G8"/>
   </mergeCells>
   <hyperlinks>
@@ -1906,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,38 +2742,38 @@
       <c r="M5" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -2006,10 +2788,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -2174,77 +2956,73 @@
     </row>
     <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
     <mergeCell ref="B7:E8"/>
     <mergeCell ref="F7:I8"/>
     <mergeCell ref="J7:M8"/>
@@ -2263,7 +3041,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,36 +3095,36 @@
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -2357,10 +3135,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -2491,80 +3269,76 @@
     </row>
     <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
+  <mergeCells count="4">
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="K7:L8"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1"/>
@@ -2579,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,77 +3577,73 @@
     </row>
     <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1"/>

--- a/Galeria.Diseño de Vistas.xlsx
+++ b/Galeria.Diseño de Vistas.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Inicio</t>
   </si>
@@ -50,19 +50,7 @@
     <t>NUESTRA MISION</t>
   </si>
   <si>
-    <t>Xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>Xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
     <t>Derechos reservados 2025 © I19 Ingenieria - RIF J-00000000-0</t>
-  </si>
-  <si>
-    <t>Xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>Xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
   <si>
     <t>Fotografias Enmarcadas</t>
@@ -82,12 +70,111 @@
   <si>
     <t>Productos &amp; Servicios</t>
   </si>
+  <si>
+    <t>i19.Galeria:</t>
+  </si>
+  <si>
+    <t>Le damos nueva vida a tus fotos antiguas o</t>
+  </si>
+  <si>
+    <t>dañadas, dejandolas listas para lucirlas en</t>
+  </si>
+  <si>
+    <t>tu mesa o pared de recuerdos.</t>
+  </si>
+  <si>
+    <t>formato que necesites.</t>
+  </si>
+  <si>
+    <t>utilizando materiales naturales, en el</t>
+  </si>
+  <si>
+    <t>Tenemos amplia variedad de fotografias</t>
+  </si>
+  <si>
+    <t>Enmarcamos tus fotos familiares,</t>
+  </si>
+  <si>
+    <t>de paisajes naturales y urbano, en variados</t>
+  </si>
+  <si>
+    <t>tus espacios.</t>
+  </si>
+  <si>
+    <t>formatos, enmarcadas y listas para decorar</t>
+  </si>
+  <si>
+    <t>Contamos con un equipo de profesionales con experiencia en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fotografia y  marqueteria para crear productos y diseños </t>
+  </si>
+  <si>
+    <t>minimalistas que daran vida a tus espacios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser una empresa referente a niv el nacional en la </t>
+  </si>
+  <si>
+    <t>produccion de arte fotografico para la decoracion de espacios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfoque a la atencion del Cliente, entendiendo sus requerimientos y </t>
+  </si>
+  <si>
+    <t>generando  recomendaciones para la mejora y optimizacion de sus proyectos</t>
+  </si>
+  <si>
+    <t>Enfoque dirijido a la satisfaccion del Cliente, cumpliendo</t>
+  </si>
+  <si>
+    <t>y superando sus espectativas con nuestros productos y servicios.</t>
+  </si>
+  <si>
+    <t>+58 412 443.03.59</t>
+  </si>
+  <si>
+    <r>
+      <t>jjojeda99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>i19.Galeria.instagram</t>
+  </si>
+  <si>
+    <t>@i19.Galeria.X</t>
+  </si>
+  <si>
+    <t>i19.Galeria.facebook</t>
+  </si>
+  <si>
+    <t>Muestra de Productos</t>
+  </si>
+  <si>
+    <t>afiches, lugares, mascotas y momentos;</t>
+  </si>
+  <si>
+    <t>Somos la mejor opcion para la personalizacion de la decoracion de tus espacios</t>
+  </si>
+  <si>
+    <t>El lugar para enmarcar tus mejores recuerdos, en el tamaño y con la calidad que quieres.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,22 +230,72 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -219,11 +356,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -237,14 +400,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,6 +435,40 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,15 +487,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>37803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>180678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -328,16 +531,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -360,8 +563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="838200"/>
-          <a:ext cx="9229725" cy="3314701"/>
+          <a:off x="3190875" y="838200"/>
+          <a:ext cx="6124575" cy="3248025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -372,15 +575,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>161628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -416,15 +619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -460,15 +663,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -504,15 +707,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -548,15 +751,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -592,15 +795,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -636,15 +839,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -678,6 +881,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="17 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="2286000"/>
+          <a:ext cx="3048000" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -685,15 +932,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>37803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>180678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -729,15 +976,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -773,15 +1020,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -817,15 +1064,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -861,15 +1108,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -905,15 +1152,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -949,15 +1196,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -991,6 +1238,254 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 Cheurón"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752006" y="1777073"/>
+          <a:ext cx="161925" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-VE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>578614</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>740539</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="12 Cheurón"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4511595" y="2527018"/>
+          <a:ext cx="161925" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-VE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578614</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>740539</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="13 Cheurón"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4511595" y="2527018"/>
+          <a:ext cx="161925" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-VE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="14 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257174" y="2667000"/>
+          <a:ext cx="3819525" cy="1369593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -998,16 +1493,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>37803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180678</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1042,15 +1537,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1086,15 +1581,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1130,15 +1625,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1174,15 +1669,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1218,15 +1713,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1262,15 +1757,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,6 +1791,385 @@
         <a:xfrm>
           <a:off x="6724651" y="4667251"/>
           <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54739</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>216664</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 Cheurón"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6465064" y="1285995"/>
+          <a:ext cx="161925" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-VE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7114</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>169039</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="10 Cheurón"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="130939" y="1381245"/>
+          <a:ext cx="161925" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-VE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26164</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188089</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 Cheurón"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4150489" y="2609970"/>
+          <a:ext cx="161925" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-VE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>599016</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="12 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="1019176"/>
+          <a:ext cx="2827866" cy="1590674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13446" r="8403" b="5691"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2543176"/>
+          <a:ext cx="885825" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527694</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="13 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2581275"/>
+          <a:ext cx="1832619" cy="1373945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="15 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495426" y="2800350"/>
+          <a:ext cx="990600" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,63 +2830,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M28"/>
+  <dimension ref="C1:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="D3" s="3" t="s">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="3:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="C2" s="6"/>
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="6" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2020,13 +2909,15 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2034,13 +2925,13 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2048,13 +2939,13 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2062,13 +2953,13 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2076,13 +2967,13 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2090,23 +2981,22 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2118,9 +3008,9 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2132,9 +3022,9 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2146,9 +3036,9 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2160,9 +3050,9 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2174,9 +3064,9 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2188,9 +3078,9 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2202,107 +3092,110 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27"/>
+    </row>
+    <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="27"/>
+    </row>
+    <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="28"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="3">
+    <mergeCell ref="C8:F11"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2312,226 +3205,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M28"/>
+  <dimension ref="C1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="D3" s="1" t="s">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="3:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="C2" s="6"/>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="6" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15" t="s">
-        <v>7</v>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+    <row r="10" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+    <row r="13" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="15" t="s">
-        <v>8</v>
+      <c r="I13" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+    <row r="14" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="I14" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+    <row r="15" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+    </row>
+    <row r="16" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="I16" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2539,14 +3409,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="15" t="s">
-        <v>9</v>
+      <c r="J18" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2554,129 +3423,126 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>10</v>
+      <c r="J19" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="32"/>
+    </row>
+    <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="C6:F10"/>
+    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2686,234 +3552,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M28"/>
+  <dimension ref="C1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="D3" s="1" t="s">
+    <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="3:14" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="6"/>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="7" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="7" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="K11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="K12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2921,114 +3783,121 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="32"/>
+    </row>
+    <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F7:I8"/>
-    <mergeCell ref="J7:M8"/>
+  <mergeCells count="12">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="K7:N8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3069,7 +3938,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>2</v>
@@ -3095,36 +3964,36 @@
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="10"/>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="10"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -3135,10 +4004,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -3269,68 +4138,68 @@
     </row>
     <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+      <c r="B24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3382,7 +4251,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>2</v>
@@ -3577,68 +4446,68 @@
     </row>
     <row r="23" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16"/>
+      <c r="B24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Galeria.Diseño de Vistas.xlsx
+++ b/Galeria.Diseño de Vistas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9315" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9315" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vista 1 (INICIO)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Inicio</t>
   </si>
@@ -619,15 +619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -663,15 +663,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -707,13 +707,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -751,13 +751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -795,15 +795,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -839,13 +839,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -915,8 +915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="2286000"/>
-          <a:ext cx="3048000" cy="1676400"/>
+          <a:off x="317500" y="2309813"/>
+          <a:ext cx="3016250" cy="1747837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,15 +976,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1020,15 +1020,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1064,13 +1064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1108,13 +1108,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1152,15 +1152,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1196,13 +1196,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -1537,15 +1537,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1581,15 +1581,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1625,13 +1625,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1669,13 +1669,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533402</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1713,15 +1713,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1757,13 +1757,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -2832,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,58 +3110,45 @@
     </row>
     <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="27"/>
+      <c r="K24" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="27"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
@@ -3170,20 +3157,19 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="28"/>
+      <c r="M26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="27"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="31"/>
@@ -3194,12 +3180,9 @@
     <mergeCell ref="C6:F7"/>
     <mergeCell ref="C1:C3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3207,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,58 +3441,45 @@
     </row>
     <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="K24" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="32"/>
+      <c r="M24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="29"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="32"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
@@ -3518,20 +3488,19 @@
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="29"/>
+      <c r="K26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="32"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="31"/>
@@ -3541,12 +3510,9 @@
     <mergeCell ref="C6:F10"/>
     <mergeCell ref="C1:C3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3554,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3803,58 +3769,45 @@
     </row>
     <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="K24" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="32"/>
+      <c r="M24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="29"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="32"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
@@ -3863,20 +3816,19 @@
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="29"/>
+      <c r="K26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="32"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="31"/>
@@ -3896,12 +3848,9 @@
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="K7:N8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Galeria.Diseño de Vistas.xlsx
+++ b/Galeria.Diseño de Vistas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9315" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9315" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Vista 1 (INICIO)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Inicio</t>
   </si>
@@ -167,7 +167,31 @@
     <t>Somos la mejor opcion para la personalizacion de la decoracion de tus espacios</t>
   </si>
   <si>
-    <t>El lugar para enmarcar tus mejores recuerdos, en el tamaño y con la calidad que quieres.</t>
+    <t>El lugar para enmarcar tus mejores recuerdos, en el tamaño y con la calidad que mereces.</t>
+  </si>
+  <si>
+    <t>dom</t>
+  </si>
+  <si>
+    <t>20/anual</t>
+  </si>
+  <si>
+    <t>30/mes</t>
+  </si>
+  <si>
+    <t>mant</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>8/h</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>100unit (min)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +520,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180678</xdr:rowOff>
+      <xdr:rowOff>152103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -941,7 +965,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180678</xdr:rowOff>
+      <xdr:rowOff>152103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2830,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N27"/>
+  <dimension ref="C1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,27 +2868,412 @@
     <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="3:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:18" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="6"/>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="3:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="3:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="6" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="Q12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="Q13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="Q14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C8:F11"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C1:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:N27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="3:14" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="6"/>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2882,215 +3291,188 @@
       <c r="N4" s="2"/>
     </row>
     <row r="6" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="C11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+    </row>
+    <row r="14" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+    </row>
+    <row r="15" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+    </row>
+    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+    </row>
+    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="J19" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
@@ -3110,74 +3492,74 @@
     </row>
     <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="H24" s="27"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="28"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="28"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="H25" s="27"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="28"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="H26" s="27"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="28"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N26" s="28"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C8:F11"/>
-    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C6:F10"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="C1:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3186,12 +3568,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N27"/>
+  <dimension ref="C1:S27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,30 +3584,30 @@
     <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="3:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:19" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="6"/>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="3:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3239,189 +3621,190 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="6" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
-        <v>29</v>
+    <row r="7" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="3:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="K11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="4"/>
+      <c r="K12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="17" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
@@ -3506,339 +3889,12 @@
       <c r="H27" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C6:F10"/>
-    <mergeCell ref="C1:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="3:14" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="6"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="M2" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="7" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="K10" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="K11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="K12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-    </row>
-    <row r="13" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="3:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="3:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="29"/>
-    </row>
-    <row r="25" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="3:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="3:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
+    <mergeCell ref="P10:S10"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="H14:I15"/>
     <mergeCell ref="K10:N10"/>
